--- a/medicine/Enfance/Johan_Heliot/Johan_Heliot.xlsx
+++ b/medicine/Enfance/Johan_Heliot/Johan_Heliot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Johan Heliot, né le 23 août 1970[1] à Besançon, de son vrai nom Stéphane Boillot-Cousin, est un écrivain français de littératures de l'imaginaire, ancien professeur de français et d'histoire-géographie dans la Haute-Saône. Il utilise aussi le pseudonyme Wayne Barrow (partagé avec Xavier Mauméjean).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Johan Heliot, né le 23 août 1970 à Besançon, de son vrai nom Stéphane Boillot-Cousin, est un écrivain français de littératures de l'imaginaire, ancien professeur de français et d'histoire-géographie dans la Haute-Saône. Il utilise aussi le pseudonyme Wayne Barrow (partagé avec Xavier Mauméjean).
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Johan Heliot fait partie d'une génération d'auteurs français de l'imaginaire apparue au tournant du millénaire. Il a publié aux éditions Mnémos plusieurs uchronies d'ambiance steampunk : La Lune seule le sait suivie de La Lune n'est pas pour nous et pour finir le cycle de La Lune vous salue bien ! ainsi que deux romans entrant plus dans le registre fantastique et policier (plus exactement fantasy urbaine), Faërie Hacker et Faerie Thriller, et la trilogie Grand Siècle entre 2017 et 2019, dans laquelle il revisite le règne du Roi-Soleil en imaginant Louis XIV se lancer dans la course vers l'espace ! Egalement en 2019, il signe aux éditions L'Atalante Frankenstein 1918, double hommage à Mary Shelley et aux victimes de la première guerre mondiale, qui reçoit le prix actusf de l'uchronie décerné la même année.
 Johan Heliot a également publié de nombreux autres romans dans différents genres, et se tourne de plus en plus vers l'écriture pour la jeunesse, depuis Ados sous contrôle chez Mango début 2007, suivi d'une cinquantaine d'autres titres, seul ou en collaboration avec Alain Grousset (série Le passeur de fantômes aux éditions Auzou), chez de nombreux éditeurs (Seuil, Syros, Scrinéo, Gulf Stream, etc.). Sa série C.I.E.L. (anticipation en quatre tomes autour du thème de l'intelligence artificielle) a rencontré un vif succès.
@@ -546,24 +560,166 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Série La Trilogie de la Lune
-La Lune seule le sait, Mnémos, 2000Prix Rosny aîné 2000 - Réédition, Gallimard, coll. « Folio SF » no 149, 2003
+          <t>Série La Trilogie de la Lune</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Lune seule le sait, Mnémos, 2000Prix Rosny aîné 2000 - Réédition, Gallimard, coll. « Folio SF » no 149, 2003
 La Lune n'est pas pour nous, Mnémos, 2005Prix Bob-Morane 2005 - Réédition, Gallimard, coll. « Folio SF » no 270, 2007
 La Lune vous salue bien !, Mnémos, 2007
 La trilogie a été rééditée en un seul tome chez Mnémos en 2011.
-Série Faerie Hackers
-Faerie Hackers, Mnémos, 2003Réédition, Gallimard, coll. « Folio SF » no 221, 2005
-Faerie Thriller, Mnémos, 2005
-Série La Quête d'Espérance
-Izaïn, né du désert, L'Atalante, 2009
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Johan_Heliot</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Johan_Heliot</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Série Faerie Hackers</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Faerie Hackers, Mnémos, 2003Réédition, Gallimard, coll. « Folio SF » no 221, 2005
+Faerie Thriller, Mnémos, 2005</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Johan_Heliot</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Johan_Heliot</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Série La Quête d'Espérance</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Izaïn, né du désert, L'Atalante, 2009
 Les Pirates de fer, L'Atalante, 2010
-L'archipel céleste, L'Atalante, 2010
-Série Grand Siècle
-L’Académie de l’éther, Mnémos, 2017
+L'archipel céleste, L'Atalante, 2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Johan_Heliot</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Johan_Heliot</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Série Grand Siècle</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>L’Académie de l’éther, Mnémos, 2017
 L’Envol du soleil, Mnémos, 2018
-La Conquête de la sphère, Mnémos, 2019
-Romans indépendants
-Reconquérants, Mnémos, 2001
+La Conquête de la sphère, Mnémos, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Johan_Heliot</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Johan_Heliot</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Reconquérants, Mnémos, 2001
 Pandemonium, Le Bélial', 2002
 La Harpe des étoiles, Imaginaires sans frontières, 2003
 Obsidio, Denoël, coll. « Lunes d'encre », 2004
@@ -580,34 +736,299 @@
 Les Sous-vivants, Seuil, 2016
 Frankenstein 1918, L'Atalante, coll. « La Dentelle du cygne », 2018
 Les Enfants de la terreur, L'Atalante, coll. « La Dentelle du cygne », 2022
-La Fureur des siècles, Critic, 2022
-Jeunesse
-Série Le Bouclier du Temps
-Cette série est coécrite avec Xavier Mauméjean.
+La Fureur des siècles, Critic, 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Johan_Heliot</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Johan_Heliot</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Jeunesse</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Série Le Bouclier du Temps</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Cette série est coécrite avec Xavier Mauméjean.
 Le Messager de l'Olympe, Fleurus, 2006
 Sachem America, Fleurus, 2006
 La Marque du dragon, Fleurus, 2007
-Samouraï City, Fleurus, 2007
-Série Nada Solstice
-L'avaleur de talents, Gründ Poche, 2010
-La belle absente, Gründ Poche, 2011
-Série Les aventures d'Alexia Dumas
-Flibustière !, L'Atalante, 2012
-Forban !, L'Atalante, 2013
-Série CIEL
-L'Hiver des machines, Gulf Stream, 2014
+Samouraï City, Fleurus, 2007</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Johan_Heliot</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Johan_Heliot</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Jeunesse</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Série Nada Solstice</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>L'avaleur de talents, Gründ Poche, 2010
+La belle absente, Gründ Poche, 2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Johan_Heliot</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Johan_Heliot</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Jeunesse</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Série Les aventures d'Alexia Dumas</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Flibustière !, L'Atalante, 2012
+Forban !, L'Atalante, 2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Johan_Heliot</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Johan_Heliot</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Jeunesse</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Série CIEL</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>L'Hiver des machines, Gulf Stream, 2014
 Le Printemps de l'espoir, Gulf Stream, 2015
 L'Été de la révolte, Gulf Stream, 2015
-L'Automne du renouveau, Gulf Stream, 2016
-Série Les Substituts
-Les Substituts, Seuil, 2014
-Les Substituts - Tome 2, Seuil, 2015
-Série Enigma
-Prédictions, Rageot Thriller, 2014
+L'Automne du renouveau, Gulf Stream, 2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Johan_Heliot</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Johan_Heliot</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Jeunesse</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Série Les Substituts</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Les Substituts, Seuil, 2014
+Les Substituts - Tome 2, Seuil, 2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Johan_Heliot</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Johan_Heliot</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Jeunesse</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Série Enigma</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Prédictions, Rageot Thriller, 2014
 Connexions, Rageot Thriller, 2015
-Machinations, Rageot Thriller, 2015
-Romans indépendants
-Opération Nemo, Magnard, coll. « Tipik », 2004
+Machinations, Rageot Thriller, 2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Johan_Heliot</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Johan_Heliot</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Jeunesse</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Opération Nemo, Magnard, coll. « Tipik », 2004
 Alter Jeremy, Mango, 2005
 Destination l'an mil, Fleurus, 2006
 Ados sous contrôle, Mango, 2007
@@ -623,9 +1044,43 @@
 Bonaventure : comment je suis devenu un agent super discret, Scrinéo, 2019
 Vers un ailleurs meilleur, Seuil, 2022
 Puce : Mission évasion, Poulpe Fictions, 2023
-Nouvelle ère, Seuil, 2023
-Nouvelles
-Opération Münchhausen, in anthologie Noirs complots (dir. Pierre Lagrange), publication avril 2003
+Nouvelle ère, Seuil, 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Johan_Heliot</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Johan_Heliot</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Opération Münchhausen, in anthologie Noirs complots (dir. Pierre Lagrange), publication avril 2003
 Trouver son cœur et tuer la bête, Bifrost no 25, janvier 2002
 Le rêve d'Amerigo Vespucci - in Les Nombreuses vies d'Arsène Lupin (2005), Les Moutons électriques, coll. « Bibliothèque rouge »
 Vous rêvez trop de Fantômas - in Les Nombreuses vies de Fantômas (2006), Les Moutons électriques, coll. « Bibliothèque rouge »
@@ -633,12 +1088,80 @@
 Le Goût de l’Amour - in Fiction Spécial #1 (2006), Les Moutons électriques
 Un contrôle de Noël - in Fiction Spécial #2 (2007), Les Moutons électriques
 Pax Bonapartia, nouvelles uchroniques dans l'anthologie Divergences 001, Flammarion Jeunesse, coll. « Ukronie » 2008
-Tu veux savoir ?, nouvelles, Thierry Magnier, 2013
-Anthologie
-La Machine à remonter les rêves (avec Richard Comballot), Mnémos, 2006
-Johan Heliot vous présente ses hommages, Les Moutons électriques, 2013
-Collaboration
-Un an dans les airs (2013)</t>
+Tu veux savoir ?, nouvelles, Thierry Magnier, 2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Johan_Heliot</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Johan_Heliot</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Anthologie</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>La Machine à remonter les rêves (avec Richard Comballot), Mnémos, 2006
+Johan Heliot vous présente ses hommages, Les Moutons électriques, 2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Johan_Heliot</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Johan_Heliot</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Collaboration</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Un an dans les airs (2013)</t>
         </is>
       </c>
     </row>
